--- a/strategieen.xlsx
+++ b/strategieen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GeoDMS\ProjDir\vesta-esdl-mondaine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C65977-3A49-4AE8-B46E-D80601A1C3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0683A46B-109B-4230-91CD-15A3AA71B6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="1530" windowWidth="21600" windowHeight="11505" xr2:uid="{E7DC51E8-4DB7-4ADF-A6D5-68BB9CF471B7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>s0</t>
   </si>
@@ -110,9 +110,6 @@
     <t>gas</t>
   </si>
   <si>
-    <t>aanvoer RV</t>
-  </si>
-  <si>
     <t>15 lucht</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>warmtebronnen</t>
   </si>
   <si>
-    <t>ruimteverwarming</t>
-  </si>
-  <si>
     <t>hWP</t>
   </si>
   <si>
@@ -189,6 +183,51 @@
   </si>
   <si>
     <t>gasheater</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>mWKK</t>
+  </si>
+  <si>
+    <t>eWP</t>
+  </si>
+  <si>
+    <t>EWV</t>
+  </si>
+  <si>
+    <t>RestW</t>
+  </si>
+  <si>
+    <t>GeoT</t>
+  </si>
+  <si>
+    <t>WKO</t>
+  </si>
+  <si>
+    <t>lt15_30</t>
+  </si>
+  <si>
+    <t>lt15_70</t>
+  </si>
+  <si>
+    <t>lt30_30</t>
+  </si>
+  <si>
+    <t>lt30_50</t>
+  </si>
+  <si>
+    <t>lt30_70</t>
+  </si>
+  <si>
+    <t>TEO</t>
+  </si>
+  <si>
+    <t>lt15_50</t>
+  </si>
+  <si>
+    <t>bioWKK</t>
   </si>
 </sst>
 </file>
@@ -205,7 +244,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,22 +586,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3790500-9C56-4863-9643-613C4724A942}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -571,33 +620,84 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,19 +705,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,79 +728,100 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -708,13 +832,22 @@
         <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -722,19 +855,25 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,19 +881,28 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -762,22 +910,31 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -785,22 +942,28 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -808,19 +971,28 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -831,13 +1003,19 @@
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -848,20 +1026,24 @@
         <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
